--- a/Варианты/02/22.xlsx
+++ b/Варианты/02/22.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -38,22 +38,25 @@
     <t>19;48;37;89;39</t>
   </si>
   <si>
+    <t>10;58;52;9;80</t>
+  </si>
+  <si>
+    <t>70;53;13;82;21</t>
+  </si>
+  <si>
+    <t>29;43;77;99;60</t>
+  </si>
+  <si>
+    <t>1;70;25;46;55</t>
+  </si>
+  <si>
+    <t>3;7;8;14;84</t>
+  </si>
+  <si>
     <t>7;87;46;79;76</t>
   </si>
   <si>
-    <t>1;45;21;66;7</t>
-  </si>
-  <si>
-    <t>12;17;15</t>
-  </si>
-  <si>
-    <t>30;71;45</t>
-  </si>
-  <si>
-    <t>1;70;25</t>
-  </si>
-  <si>
-    <t>3;7;8</t>
+    <t>1;45;21;66;73</t>
   </si>
   <si>
     <t>20;28;92</t>
@@ -62,13 +65,13 @@
     <t>77;61;5</t>
   </si>
   <si>
+    <t>12;17;15;11</t>
+  </si>
+  <si>
     <t>73;72</t>
   </si>
   <si>
     <t>1;15;73;55</t>
-  </si>
-  <si>
-    <t>10;58;52;9</t>
   </si>
   <si>
     <t>73;76</t>
@@ -80,19 +83,13 @@
     <t>87;11</t>
   </si>
   <si>
-    <t>70;53;13;82</t>
-  </si>
-  <si>
-    <t>29;43;77;99</t>
-  </si>
-  <si>
     <t>42;88</t>
   </si>
   <si>
     <t>20;9;7;6</t>
   </si>
   <si>
-    <t>11;28</t>
+    <t>39;28</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,21 +145,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,1128 +462,2946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>239</v>
+      <c r="B2" s="6">
+        <v>56</v>
       </c>
       <c r="C2" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>537</v>
+      <c r="B3" s="6">
+        <v>64</v>
       </c>
       <c r="C3" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>164</v>
+      <c r="B4" s="6">
+        <v>89</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>272</v>
+      <c r="B5" s="6">
+        <v>87</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>521</v>
+      <c r="B6" s="6">
+        <v>55</v>
       </c>
       <c r="C6" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>485</v>
+      <c r="B7" s="6">
+        <v>59</v>
       </c>
       <c r="C7" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>363</v>
+      <c r="B8" s="6">
+        <v>76</v>
       </c>
       <c r="C8" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>26</v>
+      <c r="B9" s="6">
+        <v>67</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>131</v>
+      <c r="B10" s="6">
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>119</v>
+      <c r="B11" s="6">
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>437</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
+      <c r="B12" s="6">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>279</v>
+      <c r="B13" s="6">
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>498</v>
+      <c r="B14" s="6">
+        <v>67</v>
       </c>
       <c r="C14" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>491</v>
+      <c r="B15" s="6">
+        <v>61</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>593</v>
+      <c r="B16" s="6">
+        <v>87</v>
       </c>
       <c r="C16" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>386</v>
+      <c r="B17" s="6">
+        <v>94</v>
       </c>
       <c r="C17" s="3">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>456</v>
+      <c r="B18" s="6">
+        <v>95</v>
       </c>
       <c r="C18" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>588</v>
+      <c r="B19" s="6">
+        <v>82</v>
       </c>
       <c r="C19" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>419</v>
+      <c r="B20" s="6">
+        <v>59</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>395</v>
+      <c r="B21" s="6">
+        <v>87</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>86</v>
+      <c r="B22" s="6">
+        <v>65</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>254</v>
+      <c r="B23" s="6">
+        <v>74</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>218</v>
+      <c r="B24" s="6">
+        <v>85</v>
       </c>
       <c r="C24" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>107</v>
+      <c r="B25" s="6">
+        <v>79</v>
       </c>
       <c r="C25" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>168</v>
+      <c r="B26" s="6">
+        <v>64</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>426</v>
+      <c r="B27" s="6">
+        <v>75</v>
       </c>
       <c r="C27" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>464</v>
+      <c r="B28" s="6">
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>533</v>
+      <c r="B29" s="6">
+        <v>89</v>
       </c>
       <c r="C29" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>368</v>
+      <c r="B30" s="6">
+        <v>81</v>
       </c>
       <c r="C30" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>156</v>
+      <c r="B31" s="6">
+        <v>70</v>
       </c>
       <c r="C31" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>410</v>
+      <c r="B32" s="6">
+        <v>92</v>
       </c>
       <c r="C32" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>386</v>
+      <c r="B33" s="6">
+        <v>77</v>
       </c>
       <c r="C33" s="3">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>152</v>
+      <c r="B34" s="6">
+        <v>78</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>102</v>
+      <c r="B35" s="6">
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>309</v>
+      <c r="B36" s="6">
+        <v>87</v>
       </c>
       <c r="C36" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>465</v>
+      <c r="B37" s="6">
+        <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>449</v>
+      <c r="B38" s="6">
+        <v>93</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>23</v>
+      <c r="B39" s="6">
+        <v>66</v>
       </c>
       <c r="C39" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>158</v>
+      <c r="B40" s="6">
+        <v>57</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>126</v>
+      <c r="B41" s="6">
+        <v>96</v>
       </c>
       <c r="C41" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>554</v>
+      <c r="B42" s="6">
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>267</v>
+      <c r="B43" s="6">
+        <v>59</v>
       </c>
       <c r="C43" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>501</v>
+      <c r="B44" s="6">
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>302</v>
+      <c r="B45" s="6">
+        <v>81</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>240</v>
+      <c r="B46" s="6">
+        <v>66</v>
       </c>
       <c r="C46" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>344</v>
+      <c r="B47" s="6">
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>198</v>
+      <c r="B48" s="6">
+        <v>68</v>
       </c>
       <c r="C48" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>156</v>
+      <c r="B49" s="6">
+        <v>83</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>84</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>197</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>290</v>
+      <c r="B51" s="6">
+        <v>87</v>
       </c>
       <c r="C51" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>440</v>
+      <c r="B52" s="6">
+        <v>83</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>207</v>
+      <c r="B53" s="6">
+        <v>78</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>408</v>
+      <c r="B54" s="6">
+        <v>82</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>281</v>
+      <c r="B55" s="6">
+        <v>97</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>140</v>
+      <c r="B56" s="6">
+        <v>61</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>209</v>
+      <c r="B57" s="6">
+        <v>75</v>
       </c>
       <c r="C57" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>503</v>
+      <c r="B58" s="6">
+        <v>72</v>
       </c>
       <c r="C58" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>239</v>
+      <c r="B59" s="6">
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>131</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="6">
+        <v>94</v>
+      </c>
+      <c r="C60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>143</v>
+      <c r="B61" s="6">
+        <v>62</v>
       </c>
       <c r="C61" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>257</v>
+      <c r="B62" s="6">
+        <v>95</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>237</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="6">
+        <v>78</v>
+      </c>
+      <c r="C63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>582</v>
+      <c r="B64" s="6">
+        <v>93</v>
       </c>
       <c r="C64" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>170</v>
+      <c r="B65" s="6">
+        <v>78</v>
       </c>
       <c r="C65" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>533</v>
+      <c r="B66" s="6">
+        <v>59</v>
       </c>
       <c r="C66" s="3">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>255</v>
+      <c r="B67" s="6">
+        <v>65</v>
       </c>
       <c r="C67" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
+      <c r="B68" s="6">
+        <v>82</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>54</v>
+      <c r="B69" s="6">
+        <v>87</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>173</v>
+      <c r="B70" s="6">
+        <v>92</v>
       </c>
       <c r="C70" s="3">
         <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>594</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="6">
+        <v>91</v>
+      </c>
+      <c r="C71" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>507</v>
+      <c r="B72" s="6">
+        <v>90</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>251</v>
+      <c r="B73" s="6">
+        <v>86</v>
       </c>
       <c r="C73" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>98</v>
+      <c r="B74" s="6">
+        <v>76</v>
       </c>
       <c r="C74" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>312</v>
+      <c r="B75" s="6">
+        <v>58</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>176</v>
+      <c r="B76" s="6">
+        <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>324</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="6">
+        <v>92</v>
+      </c>
+      <c r="C77" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>182</v>
+      <c r="B78" s="6">
+        <v>72</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>524</v>
+      <c r="B79" s="6">
+        <v>86</v>
       </c>
       <c r="C79" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>440</v>
+      <c r="B80" s="6">
+        <v>83</v>
       </c>
       <c r="C80" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>221</v>
+      <c r="B81" s="6">
+        <v>86</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>279</v>
+      <c r="B82" s="6">
+        <v>80</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>473</v>
+      <c r="B83" s="6">
+        <v>61</v>
       </c>
       <c r="C83" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>273</v>
+      <c r="B84" s="6">
+        <v>91</v>
       </c>
       <c r="C84" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>506</v>
+      <c r="B85" s="6">
+        <v>86</v>
       </c>
       <c r="C85" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>323</v>
+      <c r="B86" s="6">
+        <v>82</v>
       </c>
       <c r="C86" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>293</v>
+      <c r="B87" s="6">
+        <v>71</v>
       </c>
       <c r="C87" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>32</v>
+      <c r="B88" s="6">
+        <v>76</v>
       </c>
       <c r="C88" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>174</v>
+      <c r="B89" s="6">
+        <v>83</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>204</v>
+      <c r="B90" s="6">
+        <v>90</v>
       </c>
       <c r="C90" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>342</v>
+      <c r="B91" s="6">
+        <v>75</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>236</v>
+      <c r="B92" s="6">
+        <v>68</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>278</v>
+      <c r="B93" s="6">
+        <v>66</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>183</v>
+      <c r="B94" s="6">
+        <v>56</v>
       </c>
       <c r="C94" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>117</v>
+      <c r="B95" s="6">
+        <v>86</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>225</v>
+      <c r="B96" s="6">
+        <v>84</v>
       </c>
       <c r="C96" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>575</v>
+      <c r="B97" s="6">
+        <v>87</v>
       </c>
       <c r="C97" s="3">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>417</v>
+      <c r="B98" s="6">
+        <v>72</v>
       </c>
       <c r="C98" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>485</v>
+      <c r="B99" s="6">
+        <v>89</v>
       </c>
       <c r="C99" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>38</v>
+      <c r="B100" s="6">
+        <v>78</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>77</v>
+      <c r="B101" s="6">
+        <v>75</v>
       </c>
       <c r="C101" s="3">
-        <v>7</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="8"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="8"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="8"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="8"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="8"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="8"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="8"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="8"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="8"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="8"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="8"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="8"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="8"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="8"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="8"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="8"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="8"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="8"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="8"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="8"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="8"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="8"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="8"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="8"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="8"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="8"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="8"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="8"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="8"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="8"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="8"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="8"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="8"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="8"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="8"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="8"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="8"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="8"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="8"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="8"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="8"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="8"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="8"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="8"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="8"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="8"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="8"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="8"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="8"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="8"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="8"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="8"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="8"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="8"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="8"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="8"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="8"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="8"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="8"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="8"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="8"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="8"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="8"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="8"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="8"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="8"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="8"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="8"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="8"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="8"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="8"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="8"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="8"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="8"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="8"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="8"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="8"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="8"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="8"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="8"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="8"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="8"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="8"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="8"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="8"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="8"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="8"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="8"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="8"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="8"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="8"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="8"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="8"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="8"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="8"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="8"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="8"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="8"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="8"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="8"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="8"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="8"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="8"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="8"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="8"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="8"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="8"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="8"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="8"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="8"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="8"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="8"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="8"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="8"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="8"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="8"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="8"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="8"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="8"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="8"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="8"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="8"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="8"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="8"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="8"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="8"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="8"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="8"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="8"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="8"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="8"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="8"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="8"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="8"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="8"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="8"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="8"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="8"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="8"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="8"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="8"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="8"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="8"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="8"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="8"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="8"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="8"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="8"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="8"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="8"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="8"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="8"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="8"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="8"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="8"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="8"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="8"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="8"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="8"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="8"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="8"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="8"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="8"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="8"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="8"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="8"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="8"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="8"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="8"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="8"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="8"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="8"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="8"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="8"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="8"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="8"/>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="8"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="8"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="8"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="8"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="8"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" s="8"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="8"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" s="8"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="8"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" s="8"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="8"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" s="8"/>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="8"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="8"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="8"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" s="8"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="8"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="8"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="8"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="8"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="8"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="8"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="8"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="8"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="8"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458" s="8"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="8"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="8"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461" s="8"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462" s="8"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463" s="8"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="8"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" s="8"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" s="8"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" s="8"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" s="8"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" s="8"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" s="8"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" s="8"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" s="8"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" s="8"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" s="8"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" s="8"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" s="8"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" s="8"/>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" s="8"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" s="8"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" s="8"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539" s="8"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" s="8"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" s="8"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" s="8"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543" s="8"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" s="8"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545" s="8"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546" s="8"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547" s="8"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" s="8"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549" s="8"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" s="8"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551" s="8"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" s="8"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553" s="8"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554" s="8"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555" s="8"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C556" s="8"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557" s="8"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558" s="8"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559" s="8"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560" s="8"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561" s="8"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562" s="8"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563" s="8"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564" s="8"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565" s="8"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566" s="8"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567" s="8"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C568" s="8"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C569" s="8"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C570" s="8"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C571" s="8"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C572" s="8"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C573" s="8"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="8"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C575" s="8"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C576" s="8"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C577" s="8"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C578" s="8"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C579" s="8"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C580" s="8"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C581" s="8"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C582" s="8"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C583" s="8"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C584" s="8"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C585" s="8"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C586" s="8"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C587" s="8"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C588" s="8"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C589" s="8"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C590" s="8"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C591" s="8"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C592" s="8"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593" s="8"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594" s="8"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595" s="8"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596" s="8"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C597" s="8"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C598" s="8"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C599" s="8"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C600" s="8"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C601" s="8"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C602" s="8"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C603" s="8"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C604" s="8"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C605" s="8"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C606" s="8"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C607" s="8"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C608" s="8"/>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609" s="8"/>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610" s="8"/>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611" s="8"/>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612" s="8"/>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613" s="8"/>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614" s="8"/>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615" s="8"/>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616" s="8"/>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617" s="8"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="8"/>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619" s="8"/>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620" s="8"/>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621" s="8"/>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622" s="8"/>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623" s="8"/>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624" s="8"/>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625" s="8"/>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626" s="8"/>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627" s="8"/>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628" s="8"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629" s="8"/>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630" s="8"/>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631" s="8"/>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632" s="8"/>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633" s="8"/>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634" s="8"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635" s="8"/>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636" s="8"/>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637" s="8"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638" s="8"/>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639" s="8"/>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640" s="8"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641" s="8"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642" s="8"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643" s="8"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644" s="8"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C645" s="8"/>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646" s="8"/>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647" s="8"/>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C648" s="8"/>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C649" s="8"/>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C650" s="8"/>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C651" s="8"/>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C652" s="8"/>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C653" s="8"/>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C654" s="8"/>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C655" s="8"/>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C656" s="8"/>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C657" s="8"/>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C658" s="8"/>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C659" s="8"/>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C660" s="8"/>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C661" s="8"/>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C662" s="8"/>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C663" s="8"/>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C664" s="8"/>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C665" s="8"/>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C666" s="8"/>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C667" s="8"/>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C668" s="8"/>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C669" s="8"/>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C670" s="8"/>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C671" s="8"/>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C672" s="8"/>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C673" s="8"/>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C674" s="8"/>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C675" s="8"/>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C676" s="8"/>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C677" s="8"/>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C678" s="8"/>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C679" s="8"/>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C680" s="8"/>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C681" s="8"/>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C682" s="8"/>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C683" s="8"/>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C684" s="8"/>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C685" s="8"/>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C686" s="8"/>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C687" s="8"/>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C688" s="8"/>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C689" s="8"/>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C690" s="8"/>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C691" s="8"/>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C692" s="8"/>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C693" s="8"/>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C694" s="8"/>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C695" s="8"/>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C696" s="8"/>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C697" s="8"/>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C698" s="8"/>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C699" s="8"/>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C700" s="8"/>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C701" s="8"/>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C702" s="8"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C703" s="8"/>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C704" s="8"/>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C705" s="8"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C706" s="8"/>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C707" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
